--- a/개발 일정표.xlsx
+++ b/개발 일정표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seongho Chun\Documents\GGCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIG\Desktop\GGCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF3EB83-1B18-412C-B5F3-C75BE1EFEA2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F8DC6A-DE33-4119-A773-03C25DD8C4C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>7월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,23 @@
 우선 캡스톤 및 소공전을 위한 제품
 완성을 위해 노력. 기술지원시에 
 다시 한번 물어볼 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 일부 완료 / 아직 화면에 포함될 기능 미정인 페이지 남아있음…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 1주차에 완성하지 못했던 화면별 포함해야 할 기능 세부사항만이라도 마무리 하자!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 각 화면별 포함해야 할 세부 기능 리스트화 및 예상 화면 작성 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 실제 안드로이드 앱 화면들 구현
+2. 1에 맞춰서 화면하나를 제작할 때 마다 서버에서 해당 페이지와 통신하는 부분의 함수 제작하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,32 +459,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,7 +488,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,257 +810,266 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
-    <col min="5" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.19921875" customWidth="1"/>
+    <col min="4" max="4" width="31.09765625" customWidth="1"/>
+    <col min="5" max="5" width="30.8984375" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="22" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="25" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
-    <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:15" ht="70.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="7"/>
+      <c r="D3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:15" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="8"/>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="19"/>
     </row>
-    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:15" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="8"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" ht="116.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:15" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="8"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
